--- a/proj1_excel.xlsx
+++ b/proj1_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82104\OneDrive-CAU\4-1\멀티코어\Multicore_programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F778ED65-4B99-45C7-B882-CA4380A603DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA207950-5FCA-40BD-B2DD-B2E934075BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E648A18-4823-4583-93EC-5CFA90D37FB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t>&lt;Default&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -105,6 +105,34 @@
   </si>
   <si>
     <t>Performance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Try1 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thread #</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exec Time(ms)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Performance(1/ms)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -217,10 +245,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1944,6 +1972,940 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>Exec Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$69:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$69:$F$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6132-4BB4-9E32-21D902ACA97C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2121354928"/>
+        <c:axId val="2121340528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121354928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+                  <a:t> #</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121340528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121340528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+                  <a:t>Exec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121354928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$69:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$86:$D$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.4992503748125937E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0408163265306124E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0959752321981426E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3112582781456954E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7313432835820895E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8910505836575876E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8910505836575876E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.937007874015748E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2735042735042739E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4843049327354259E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44D5-46F5-B4C2-316568110E6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2121379888"/>
+        <c:axId val="2121393328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121379888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+                  <a:t>Thread</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+                  <a:t> #</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121393328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121393328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+                  <a:t>Exec</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121379888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4722,7 +5684,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5161,7 +6122,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5930,6 +6890,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7192,6 +8232,1038 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12207,6 +14279,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29385</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>148346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>125243</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7CFE23E-3360-37DB-4460-955FA5915AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>414438</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>178745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11146</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>155642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1603EA-F075-111B-2818-7DA38B0F3DD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12247,6 +14391,46 @@
     <tableColumn id="11" xr3:uid="{8A5E4D46-E1FC-4A6F-ABD2-ACC2596E00A1}" name="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{132CFFFD-17E5-4797-B551-91D9B3440428}" name="표1" displayName="표1" ref="H70:R71" totalsRowShown="0">
+  <autoFilter ref="H70:R71" xr:uid="{132CFFFD-17E5-4797-B551-91D9B3440428}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{70F1C3AC-9D32-48F6-AE4C-EB81D3F1657E}" name="Thread #"/>
+    <tableColumn id="2" xr3:uid="{A9EF69F6-EB52-4157-A15B-F862316B0D93}" name="1"/>
+    <tableColumn id="3" xr3:uid="{4DCD3DD4-C452-47A1-B2B5-A9D6FC0BB24D}" name="2"/>
+    <tableColumn id="4" xr3:uid="{9D191025-3A17-4FC3-9207-828622EBC712}" name="4"/>
+    <tableColumn id="5" xr3:uid="{EFECEB6A-F360-4F9D-994C-C01C0F78878B}" name="6"/>
+    <tableColumn id="6" xr3:uid="{0FE77B8E-3951-4A8C-8E23-31F481757931}" name="8"/>
+    <tableColumn id="7" xr3:uid="{D0A49135-790C-4F9F-8E5F-6213A4785157}" name="10"/>
+    <tableColumn id="8" xr3:uid="{442B063A-F431-49DC-AF74-9A2CF2F8BEFF}" name="12"/>
+    <tableColumn id="9" xr3:uid="{46302781-F057-44B7-9776-717AAE6DF6E6}" name="14"/>
+    <tableColumn id="10" xr3:uid="{53284435-54B4-4E22-A7DE-276E2C35702E}" name="16"/>
+    <tableColumn id="11" xr3:uid="{54D26815-43D8-4B88-9775-E249C2283E48}" name="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C8B6F502-45AD-4B5C-80EA-3FEEA55DAEE1}" name="표2" displayName="표2" ref="H89:R90" totalsRowShown="0">
+  <autoFilter ref="H89:R90" xr:uid="{C8B6F502-45AD-4B5C-80EA-3FEEA55DAEE1}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{EE8C4F9D-82C1-47DC-921A-BEB51175E684}" name="Thread #"/>
+    <tableColumn id="2" xr3:uid="{135C1A92-C7D3-42CC-8D45-E9E31F61D4F0}" name="1"/>
+    <tableColumn id="3" xr3:uid="{519F260C-8987-4DD1-BC90-45380DA49013}" name="2"/>
+    <tableColumn id="4" xr3:uid="{FF354A71-A5F5-4744-8609-3DE53A661977}" name="4"/>
+    <tableColumn id="5" xr3:uid="{7B8467A4-67AD-4BEA-A936-79778EFA4702}" name="6"/>
+    <tableColumn id="6" xr3:uid="{AAC117F8-B78D-44AF-8B80-B7603FEE022A}" name="8"/>
+    <tableColumn id="7" xr3:uid="{97D66632-1A0E-4561-B27A-E7E5B85B4570}" name="10"/>
+    <tableColumn id="8" xr3:uid="{6D500C96-B269-4E51-9D0A-4C5F7A678D2B}" name="12"/>
+    <tableColumn id="9" xr3:uid="{D7F1D611-1944-4A69-A2A8-7A99625BC7D0}" name="14"/>
+    <tableColumn id="10" xr3:uid="{CE9F7B19-3BF4-4D69-8037-6DC495A3DEF1}" name="16"/>
+    <tableColumn id="11" xr3:uid="{975A68D7-38DD-4108-827A-1895C4F6690C}" name="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -12547,18 +14731,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1F12BB-B12A-4A52-B4F7-4FDD4356FF0E}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R34" zoomScale="94" workbookViewId="0">
-      <selection activeCell="AH47" sqref="AH47"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="94" workbookViewId="0">
+      <selection activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.375" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="9.5" bestFit="1" customWidth="1"/>
@@ -12681,7 +14866,7 @@
         <v>5791</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:D15" si="0">1/B7</f>
+        <f t="shared" ref="C7:C15" si="0">1/B7</f>
         <v>1.7268174753928511E-4</v>
       </c>
       <c r="D7">
@@ -13452,13 +15637,458 @@
         <v>5.649717514124294E-4</v>
       </c>
     </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>633</v>
+      </c>
+      <c r="C69">
+        <v>723</v>
+      </c>
+      <c r="D69">
+        <v>645</v>
+      </c>
+      <c r="E69">
+        <f>AVERAGE(B69:D69)</f>
+        <v>667</v>
+      </c>
+      <c r="F69">
+        <v>667</v>
+      </c>
+      <c r="G69">
+        <f>1/F69</f>
+        <v>1.4992503748125937E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>507</v>
+      </c>
+      <c r="C70">
+        <v>454</v>
+      </c>
+      <c r="D70">
+        <v>510</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:E78" si="3">AVERAGE(B70:D70)</f>
+        <v>490.33333333333331</v>
+      </c>
+      <c r="F70">
+        <v>490</v>
+      </c>
+      <c r="G70">
+        <f t="shared" ref="G70:G78" si="4">1/F70</f>
+        <v>2.0408163265306124E-3</v>
+      </c>
+      <c r="H70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" t="s">
+        <v>5</v>
+      </c>
+      <c r="K70" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" t="s">
+        <v>7</v>
+      </c>
+      <c r="M70" t="s">
+        <v>8</v>
+      </c>
+      <c r="N70" t="s">
+        <v>9</v>
+      </c>
+      <c r="O70" t="s">
+        <v>10</v>
+      </c>
+      <c r="P70" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>12</v>
+      </c>
+      <c r="R70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>279</v>
+      </c>
+      <c r="C71">
+        <v>414</v>
+      </c>
+      <c r="D71">
+        <v>276</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>323</v>
+      </c>
+      <c r="F71">
+        <v>323</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>3.0959752321981426E-3</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71">
+        <v>667</v>
+      </c>
+      <c r="J71">
+        <v>490</v>
+      </c>
+      <c r="K71">
+        <v>323</v>
+      </c>
+      <c r="L71">
+        <v>302</v>
+      </c>
+      <c r="M71">
+        <v>268</v>
+      </c>
+      <c r="N71">
+        <v>257</v>
+      </c>
+      <c r="O71">
+        <v>257</v>
+      </c>
+      <c r="P71">
+        <v>254</v>
+      </c>
+      <c r="Q71">
+        <v>234</v>
+      </c>
+      <c r="R71">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>266</v>
+      </c>
+      <c r="C72">
+        <v>335</v>
+      </c>
+      <c r="D72">
+        <v>306</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>302.33333333333331</v>
+      </c>
+      <c r="F72">
+        <v>302</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>3.3112582781456954E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>225</v>
+      </c>
+      <c r="C73">
+        <v>262</v>
+      </c>
+      <c r="D73">
+        <v>283</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>256.66666666666669</v>
+      </c>
+      <c r="F73">
+        <v>268</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>3.7313432835820895E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>226</v>
+      </c>
+      <c r="C74">
+        <v>294</v>
+      </c>
+      <c r="D74">
+        <v>284</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>268</v>
+      </c>
+      <c r="F74">
+        <v>257</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>3.8910505836575876E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>230</v>
+      </c>
+      <c r="C75">
+        <v>241</v>
+      </c>
+      <c r="D75">
+        <v>300</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>257</v>
+      </c>
+      <c r="F75">
+        <v>257</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>3.8910505836575876E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>317</v>
+      </c>
+      <c r="C76">
+        <v>219</v>
+      </c>
+      <c r="D76">
+        <v>288</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>274.66666666666669</v>
+      </c>
+      <c r="F76">
+        <v>254</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>3.937007874015748E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77">
+        <v>232</v>
+      </c>
+      <c r="C77">
+        <v>214</v>
+      </c>
+      <c r="D77">
+        <v>257</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>234.33333333333334</v>
+      </c>
+      <c r="F77">
+        <v>234</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>4.2735042735042739E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>32</v>
+      </c>
+      <c r="B78">
+        <v>222</v>
+      </c>
+      <c r="C78">
+        <v>224</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="F78">
+        <v>223</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>4.4843049327354259E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>1.4992503748125937E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>2.0408163265306124E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>3.0959752321981426E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>3.3112582781456954E-3</v>
+      </c>
+      <c r="H89" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" t="s">
+        <v>6</v>
+      </c>
+      <c r="L89" t="s">
+        <v>7</v>
+      </c>
+      <c r="M89" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" t="s">
+        <v>9</v>
+      </c>
+      <c r="O89" t="s">
+        <v>10</v>
+      </c>
+      <c r="P89" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>12</v>
+      </c>
+      <c r="R89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>3.7313432835820895E-3</v>
+      </c>
+      <c r="H90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90">
+        <v>1.4992503748125937E-3</v>
+      </c>
+      <c r="J90">
+        <v>2.0408163265306124E-3</v>
+      </c>
+      <c r="K90">
+        <v>3.0959752321981426E-3</v>
+      </c>
+      <c r="L90">
+        <v>3.3112582781456954E-3</v>
+      </c>
+      <c r="M90">
+        <v>3.7313432835820895E-3</v>
+      </c>
+      <c r="N90">
+        <v>3.8910505836575876E-3</v>
+      </c>
+      <c r="O90">
+        <v>3.8910505836575876E-3</v>
+      </c>
+      <c r="P90">
+        <v>3.937007874015748E-3</v>
+      </c>
+      <c r="Q90">
+        <v>4.2735042735042739E-3</v>
+      </c>
+      <c r="R90">
+        <v>4.4843049327354259E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>3.8910505836575876E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>3.8910505836575876E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>3.937007874015748E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>4.2735042735042739E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>4.4843049327354259E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>